--- a/biology/Botanique/Tilia_insularis/Tilia_insularis.xlsx
+++ b/biology/Botanique/Tilia_insularis/Tilia_insularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tilia insularis  est une espèce d'arbres de la famille des Tiliaceae ou des Malvaceae, sous-famille des Tilioideae, selon la classification phylogénétique.
 Cet arbre est originaire des deux Corée(s) et du Japon où il est utilisé comme bois de feu ou bois semi-précieux.
 Son appellation est sujette à controverses.
-Tilia japonica 'Ernest Wilson' a autrefois été appelé Tilia insularis[1].
+Tilia japonica 'Ernest Wilson' a autrefois été appelé Tilia insularis.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une hauteur moyenne d'un mètre, il peut toutefois s'élever à 35 m[2].
-L'arbre est une des espèces qui fleurit le plus tôt après sa première plantation. La floraison a lieu au milieu de l'été[1]. Les feuilles d'un vert tendre tournent au jaune moutarde à la fin de l'été[1].
-Une de ses particularités est le nombre de fleurs : jusqu'à trente-six dans une même inflorescence, pour la variété 'Nakaï'[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une hauteur moyenne d'un mètre, il peut toutefois s'élever à 35 m.
+L'arbre est une des espèces qui fleurit le plus tôt après sa première plantation. La floraison a lieu au milieu de l'été. Les feuilles d'un vert tendre tournent au jaune moutarde à la fin de l'été.
+Une de ses particularités est le nombre de fleurs : jusqu'à trente-six dans une même inflorescence, pour la variété 'Nakaï'.
 </t>
         </is>
       </c>
